--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larainelei/Documents/工作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>登录名*</t>
     <rPh sb="0" eb="1">
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abcd1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入值</t>
     <rPh sb="0" eb="1">
       <t>shu ru zhi</t>
@@ -199,6 +195,42 @@
     <rPh sb="0" eb="1">
       <t>shou ji hao qu zzhi gui ze</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请至第二页-用户导入模板表，填写信息</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di er ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao ru mu ban</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -303,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -312,6 +347,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,28 +618,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -620,8 +664,12 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,15 +677,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,74 +700,123 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="42" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="39" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="30.95" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G1:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,9 +831,9 @@
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
